--- a/medicine/Pharmacie/Pharmacie_militaire/Pharmacie_militaire.xlsx
+++ b/medicine/Pharmacie/Pharmacie_militaire/Pharmacie_militaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacie militaire est un des modes d'exercice de la pharmacie.
 En France, les pharmaciens militaires ont un statut particulier, celui de « pharmacien des Armées ».
 Accessible sur concours sélectif dès la fin de la Terminale, les futurs pharmaciens militaires sont formés pendant 5 ans à l'École de Santé des Armées à Bron (69) puis 1 année à l'École du Val de Grâce à Paris. En plus de leurs obligations militaires, ils suivent les cours de la faculté de pharmacie de Lyon (ISPB). Durant leurs années sur la « Boate » (surnom de l'ESA), les futurs pharmaciens militaires (dits les « Potards »), sont au grade d' "Elève Officier Pharmacien" la première année et au grade d' "Aspirant Pharmacien" les 5 années suivantes. Leur couleur associée est le &lt;=vert=&gt;.
 Durant leur formation, ils sont formés au sauvetage au combat et à toute la pratique de base qu'un militaire doit avoir. Des brevets militaires leur sont accessibles comme le brevet de parachutiste ou bien encore le stage d’aguerrissement au centre d’entraînement en forêt équatoriale.
-À la fin de leur étude, les pharmaciens militaires[1] sortent au grade de Capitaine. Plusieurs carrières leur sont ouvertes : dans le ravitaillement, dans la recherche, dans les risques NRBC, dans les Hôpitaux (HIA), à la Pharmacie Centrale des armées, dans la gendarmerie scientifique ou bien encore dans des postes de cadres administratifs.
-Maillon essentiel de la chaîne médicale, les Pharmaciens militaires participent à l'élaboration des antennes médicales[2]en Opération Extérieure ou Intérieure (avec la crise liée au Covid19 et à l'établissement d'un hôpital de Campagne à Mulhouse). Ils permettent également une indépendance de l'armée française vis-à-vis des industries pharmaceutiques grâce à leur propre production de médicaments à Orléans. Enfin, le pharmacien militaire, grâce à des techniques de pointe permet la conception de concepts et objets permettant d'améliorer la sécurité des combattants[3].
+À la fin de leur étude, les pharmaciens militaires sortent au grade de Capitaine. Plusieurs carrières leur sont ouvertes : dans le ravitaillement, dans la recherche, dans les risques NRBC, dans les Hôpitaux (HIA), à la Pharmacie Centrale des armées, dans la gendarmerie scientifique ou bien encore dans des postes de cadres administratifs.
+Maillon essentiel de la chaîne médicale, les Pharmaciens militaires participent à l'élaboration des antennes médicalesen Opération Extérieure ou Intérieure (avec la crise liée au Covid19 et à l'établissement d'un hôpital de Campagne à Mulhouse). Ils permettent également une indépendance de l'armée française vis-à-vis des industries pharmaceutiques grâce à leur propre production de médicaments à Orléans. Enfin, le pharmacien militaire, grâce à des techniques de pointe permet la conception de concepts et objets permettant d'améliorer la sécurité des combattants.
 Interarmées, l'armée française compte actuellement environ 180 Pharmaciens d'active.
 </t>
         </is>
@@ -517,7 +529,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La médecine, la chirurgie et la pharmacie étaient tous les trois à l'origine un seul et même art exercé par les mêmes hommes.
 Lorsque l'art de guérir fit des progrès, on a été obligé de diviser l'art en plusieurs branches différentes. Ce qui conduira celui-ci à la perfection dont il est susceptible. Alors, dès que la pharmacie devient une profession séparée en plusieurs branches, on sentit une nécessité de soumettre la pharmacie à des lois sages et invariables, dont tous les gouvernements ont étendu leur sollicitude sur la santé et la vie des hommes.
@@ -555,22 +569,24 @@
           <t>Quelques figures de la pharmacie militaire depuis le 18e siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Bayen (1725-1798)
 Antoine Parmentier (1737-1813)
 Gabriel-François Villette (1744-1816)
 Bertrand Pelletier (1761-1797)
 Charles-Jean Laubert (1762-1834)
-[5]Jean-Antoine Laudibert (1772-1840)
+Jean-Antoine Laudibert (1772-1840)
 Georges Serullas (1774-1832)
 Joseph Bienaimé Caventou (1795-1877)
 Antoine Baudoin Poggiale (1808-1879)
 Auguste-Nicolas-Eugène Millon (1812-1867)
 François-Zacharie Roussin (1827-1894)
-[6],[7]Louis-Carle Gessard (1850-1925)
+,Louis-Carle Gessard (1850-1925)
 Joseph-Antoine-Félix Balland (1845-1927)
-[8]Pharmacien colonel Numa Cyrille Laffitte : Parrain de la promotion 1944 de l'École d'application du service de santé des troupes coloniales dit Le Pharo
+Pharmacien colonel Numa Cyrille Laffitte : Parrain de la promotion 1944 de l'École d'application du service de santé des troupes coloniales dit Le Pharo
 Pharmacien capitaine des TDM André BRANCOURT : Parrain de la promotion 1960 de Santé Navale
 Pharmacien colonel des TDM Gauthier PILLE : Parrain de la promotion 1978 de Santé Navale
 Pharmacien lieutenant Jean HERNETTE : Parrain de la promotion 1995 de Santé Navale</t>
